--- a/data/trans_orig/Q61A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>18.4203418870353</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>18.24368604304517</v>
+        <v>18.24368604304518</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>5.308955168019748</v>
@@ -693,7 +693,7 @@
         <v>18.62009254014127</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>15.62719106166586</v>
+        <v>15.62719106166587</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.273850881814903</v>
+        <v>3.246747187166288</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.7184104442127</v>
+        <v>10.84905094747979</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.3835933669426</v>
+        <v>15.6171149966694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.113290146245961</v>
+        <v>7.548099477036375</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.936241795804372</v>
+        <v>4.910546312763085</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>13.91346056509086</v>
+        <v>13.87798340980443</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>14.81141205293772</v>
+        <v>14.79347104925116</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>14.82545914805595</v>
+        <v>14.70256732025377</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.466857136755631</v>
+        <v>4.478549338031044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12.87212413857122</v>
+        <v>12.77007590221042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15.92965737861412</v>
+        <v>16.23320409670358</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>12.77154179640691</v>
+        <v>12.58378718260013</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.725326961544036</v>
+        <v>5.576127063236573</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.22179311547388</v>
+        <v>19.22878685646113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.52444393889689</v>
+        <v>23.78488559544131</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.73591657056001</v>
+        <v>16.73663594334833</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.79936835197886</v>
+        <v>7.847384006614416</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.17070327635061</v>
+        <v>22.24853788618653</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>24.42730015097994</v>
+        <v>24.59031279655769</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>23.28517891610073</v>
+        <v>23.21627495754809</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.412946275932994</v>
+        <v>6.425690836053416</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.44855975293371</v>
+        <v>18.38939743025081</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21.6084297680722</v>
+        <v>22.32708227769035</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>19.20663409758992</v>
+        <v>19.04972605825138</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.693341068067647</v>
+        <v>4.731058913045799</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>12.70209169261332</v>
+        <v>12.76698951137248</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.48668982173247</v>
+        <v>17.61931397167043</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13.52409248650659</v>
+        <v>13.7533351728978</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.157125099414222</v>
+        <v>7.312682430237361</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.48619534991939</v>
+        <v>13.29211915427233</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>19.60376117546944</v>
+        <v>19.76635357364279</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.09605005348414</v>
+        <v>16.15076685926281</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>6.720609085480725</v>
+        <v>6.723853778847954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13.54303921881124</v>
+        <v>13.54089284312693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19.42442067340542</v>
+        <v>19.40412937621728</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.26393078452257</v>
+        <v>15.99175370795038</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.83259893094849</v>
+        <v>14.84773880079273</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.67539618344741</v>
+        <v>17.7576824833344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24.0226599506456</v>
+        <v>23.61588177026604</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25.19855443451035</v>
+        <v>25.7295803004998</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>21.28542589518616</v>
+        <v>20.22856811331422</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.41502374037618</v>
+        <v>18.20875622474672</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>28.59918002273221</v>
+        <v>29.2771489974704</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>26.18438544691515</v>
+        <v>26.58742718342794</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>14.73405437231189</v>
+        <v>14.83825102966325</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.09696287442384</v>
+        <v>16.85427969859695</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24.73038185615761</v>
+        <v>24.62581953057154</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>24.39736808639256</v>
+        <v>24.15196382665767</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.91758887340749</v>
+        <v>4.932753749742179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.1746797240124</v>
+        <v>12.18066077118938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.96936368357814</v>
+        <v>13.71674799369902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.78610026031947</v>
+        <v>15.28475545582921</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.133600716105089</v>
+        <v>3.988302132952171</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.80307228733655</v>
+        <v>13.55235017489078</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.10876890357686</v>
+        <v>15.84616450797959</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>22.86154570229024</v>
+        <v>22.74898907338261</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.988405362064849</v>
+        <v>4.939940743007734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13.17934558351277</v>
+        <v>13.05012085830263</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15.56657285694116</v>
+        <v>15.44331807070732</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>20.60154703709823</v>
+        <v>20.47816516541878</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.633577720326494</v>
+        <v>9.638108051659035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.04375226849572</v>
+        <v>16.80955230009523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.64843308120086</v>
+        <v>19.65541604489816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28.0225101530648</v>
+        <v>28.51303004973117</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.221793119048501</v>
+        <v>7.984335959395739</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.91024965563677</v>
+        <v>21.32640467034135</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>24.01876046471376</v>
+        <v>23.79773160995914</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>44.29921032955298</v>
+        <v>41.9747163195799</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.176431010336351</v>
+        <v>8.141709280379109</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.06344298927699</v>
+        <v>17.0980626462788</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20.54536262959074</v>
+        <v>20.60013619912289</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>32.34327084574819</v>
+        <v>31.70308755921946</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>21.46557297793854</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27.79140595692334</v>
+        <v>27.79140595692333</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>6.776472546457435</v>
@@ -1089,7 +1089,7 @@
         <v>28.21273130208149</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>26.00296939426398</v>
+        <v>26.00296939426397</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>6.111382349068704</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.285515721588473</v>
+        <v>4.240205849458712</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.83276291540272</v>
+        <v>16.13177220138337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18.44931807313223</v>
+        <v>18.80983530426342</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21.19807059483101</v>
+        <v>20.90251092658094</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.788883774504656</v>
+        <v>4.997178617387342</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.72090453978475</v>
+        <v>18.71528489862137</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>24.28151236137242</v>
+        <v>24.16842153850834</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>19.90218227437818</v>
+        <v>20.65425038072338</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.87426069583757</v>
+        <v>4.942099412221156</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18.2314935262912</v>
+        <v>18.10426502365666</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22.33337356052028</v>
+        <v>22.17012261689493</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>22.52328746742345</v>
+        <v>22.31499600402735</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.776538965548597</v>
+        <v>7.548100618994393</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.6520838586973</v>
+        <v>22.67987379065498</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24.96160718285561</v>
+        <v>25.04482690832888</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39.42723488795348</v>
+        <v>37.75472874576283</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>12.82887948995153</v>
+        <v>12.68703545026947</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>31.48497476794248</v>
+        <v>32.77051167595256</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>33.41869467500286</v>
+        <v>33.67668488754369</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>34.65652714230074</v>
+        <v>34.96800208309579</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>8.43279498518554</v>
+        <v>8.747896946444824</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25.51267229893726</v>
+        <v>25.44498496142278</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27.72319654936764</v>
+        <v>27.67248197137677</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>34.02313037391549</v>
+        <v>33.49805060771224</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>21.11206048324177</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>22.02294095928416</v>
+        <v>22.02294095928415</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.089061163832629</v>
+        <v>5.023292403079854</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.78721832113334</v>
+        <v>13.76960359460213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17.99768458502254</v>
+        <v>18.09193604689869</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.47423101930758</v>
+        <v>17.27491113548475</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.206637117195412</v>
+        <v>6.229717429485234</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.33764490731746</v>
+        <v>16.4300368162188</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>20.66271396868079</v>
+        <v>20.75162596118223</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>20.42259117753012</v>
+        <v>20.42786648242937</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.973077928389648</v>
+        <v>5.921954389425972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15.2664773101985</v>
+        <v>15.21308482675411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19.70791717425502</v>
+        <v>19.72955349988873</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>19.87585070146598</v>
+        <v>19.87790716121866</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.308414157925231</v>
+        <v>8.569918593295595</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.58295162873127</v>
+        <v>16.93177684667784</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.37410181307352</v>
+        <v>21.42682816062563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.10232546843733</v>
+        <v>23.9269616570053</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.00145891871105</v>
+        <v>10.99876297603831</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.67162350612848</v>
+        <v>20.6143978051199</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>25.01118771467042</v>
+        <v>25.38544080170061</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>27.11368174204094</v>
+        <v>26.90540685326727</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.710525281782676</v>
+        <v>8.78283494484228</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.62793364761281</v>
+        <v>17.71276665913414</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22.59109651474337</v>
+        <v>22.59166687278503</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>24.73425338799832</v>
+        <v>24.57209262760883</v>
       </c>
     </row>
     <row r="19">
